--- a/pob_daily_data/POB_Daily_Elbrit_CND_2025-07-01.xlsx
+++ b/pob_daily_data/POB_Daily_Elbrit_CND_2025-07-01.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="388">
   <si>
     <t xml:space="preserve">Division</t>
   </si>
@@ -32,6 +32,9 @@
     <t xml:space="preserve">Tn-Coimbatore</t>
   </si>
   <si>
+    <t xml:space="preserve">Tn-Trichy</t>
+  </si>
+  <si>
     <t xml:space="preserve">HQ</t>
   </si>
   <si>
@@ -53,6 +56,15 @@
     <t xml:space="preserve">Salem</t>
   </si>
   <si>
+    <t xml:space="preserve">Madurai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagercoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirunelveli</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
@@ -62,6 +74,15 @@
     <t xml:space="preserve">21/07/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">22/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/07/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">03/07/2025</t>
   </si>
   <si>
@@ -74,7 +95,7 @@
     <t xml:space="preserve">15/07/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">22/07/2025</t>
+    <t xml:space="preserve">25/07/2025</t>
   </si>
   <si>
     <t xml:space="preserve">08/07/2025</t>
@@ -101,6 +122,9 @@
     <t xml:space="preserve">E00495</t>
   </si>
   <si>
+    <t xml:space="preserve">E00423</t>
+  </si>
+  <si>
     <t xml:space="preserve">E00212</t>
   </si>
   <si>
@@ -122,6 +146,18 @@
     <t xml:space="preserve">E00699</t>
   </si>
   <si>
+    <t xml:space="preserve">E00847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E00639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E00676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E00865</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emp Name</t>
   </si>
   <si>
@@ -137,6 +173,9 @@
     <t xml:space="preserve">N.Rajasekaran(E00495)</t>
   </si>
   <si>
+    <t xml:space="preserve">T.Pattumuthu (E00423)</t>
+  </si>
+  <si>
     <t xml:space="preserve">M.Karunakaran (E00212)</t>
   </si>
   <si>
@@ -158,6 +197,18 @@
     <t xml:space="preserve">M.Sakthivel(E00699)</t>
   </si>
   <si>
+    <t xml:space="preserve">Abdul Nivas M(E00847)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karthick kesavan kumaran(E00639)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emil Pradeep (E00676)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karthickeyan(E00865)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desig</t>
   </si>
   <si>
@@ -194,6 +245,15 @@
     <t xml:space="preserve">00002905</t>
   </si>
   <si>
+    <t xml:space="preserve">00047718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00002670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00010612</t>
+  </si>
+  <si>
     <t xml:space="preserve">00005396</t>
   </si>
   <si>
@@ -227,6 +287,27 @@
     <t xml:space="preserve">00005932</t>
   </si>
   <si>
+    <t xml:space="preserve">00004437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00002170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00043748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00007366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00031933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00046783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00004662</t>
+  </si>
+  <si>
     <t xml:space="preserve">00001957</t>
   </si>
   <si>
@@ -254,9 +335,36 @@
     <t xml:space="preserve">00043310</t>
   </si>
   <si>
+    <t xml:space="preserve">00000095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00005833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000490</t>
+  </si>
+  <si>
     <t xml:space="preserve">00000413</t>
   </si>
   <si>
+    <t xml:space="preserve">00022538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00002080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00034879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00010640</t>
+  </si>
+  <si>
     <t xml:space="preserve">00000571</t>
   </si>
   <si>
@@ -269,6 +377,51 @@
     <t xml:space="preserve">00000542</t>
   </si>
   <si>
+    <t xml:space="preserve">00000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00035234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00014999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00044071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00004608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00004575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00011137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00000806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00034739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00004558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00043092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00048151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00030261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00028326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00007992</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
@@ -290,6 +443,15 @@
     <t xml:space="preserve">M. C. Deepak</t>
   </si>
   <si>
+    <t xml:space="preserve">S. Ramesh Kumar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanda kumaran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.SHEIK MOHAMAD RIYAZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">AISWARYA</t>
   </si>
   <si>
@@ -323,6 +485,27 @@
     <t xml:space="preserve">CHARANYA SIVAKUMAR</t>
   </si>
   <si>
+    <t xml:space="preserve">Gowrishankar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.Gokulnath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangeetha J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanagaraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vigneshwer Dulasidaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VINOD KANNAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEEPA</t>
+  </si>
+  <si>
     <t xml:space="preserve">K.Raja</t>
   </si>
   <si>
@@ -350,9 +533,33 @@
     <t xml:space="preserve">GANGA DEVI .C</t>
   </si>
   <si>
+    <t xml:space="preserve">Senthilkumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.PRAKASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chidambaran Gopu</t>
+  </si>
+  <si>
     <t xml:space="preserve">K. Duraisamy</t>
   </si>
   <si>
+    <t xml:space="preserve">D.KARTHIKEYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nirmala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.Kanchana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR SRI DEVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.PANNEER SELVAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">A.Jayapal</t>
   </si>
   <si>
@@ -365,6 +572,51 @@
     <t xml:space="preserve">Arumugam Kannan</t>
   </si>
   <si>
+    <t xml:space="preserve">V.Saravanan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K.Madhubalan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirumurugan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T MOHANAVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.Kannan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MuthuVeeran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.S.PANDIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Manivannan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.Ebenezer Rajadurai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM.Murugappan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thuthesan Baba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De.R.ANITHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punitha Suresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhanya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr.Boppy</t>
+  </si>
+  <si>
     <t xml:space="preserve">City</t>
   </si>
   <si>
@@ -374,6 +626,9 @@
     <t xml:space="preserve">MINJUR</t>
   </si>
   <si>
+    <t xml:space="preserve">TAMBARAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">THIRUKANUR</t>
   </si>
   <si>
@@ -386,6 +641,15 @@
     <t xml:space="preserve">Vaniyambadi</t>
   </si>
   <si>
+    <t xml:space="preserve">walajapet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiruvannamalai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCOT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Annur</t>
   </si>
   <si>
@@ -401,6 +665,18 @@
     <t xml:space="preserve">Thudiyalur</t>
   </si>
   <si>
+    <t xml:space="preserve">Avinashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tirupur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vellakoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gobi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paramathi Velur</t>
   </si>
   <si>
@@ -410,6 +686,24 @@
     <t xml:space="preserve">Dharmapuri</t>
   </si>
   <si>
+    <t xml:space="preserve">Krishnagiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangavalli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thirumangalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karaikkudi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dindigul</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category</t>
   </si>
   <si>
@@ -422,6 +716,9 @@
     <t xml:space="preserve">SC</t>
   </si>
   <si>
+    <t xml:space="preserve">RBM 50</t>
+  </si>
+  <si>
     <t xml:space="preserve">P30</t>
   </si>
   <si>
@@ -431,6 +728,9 @@
     <t xml:space="preserve">IDF 25</t>
   </si>
   <si>
+    <t xml:space="preserve">SM 25</t>
+  </si>
+  <si>
     <t xml:space="preserve">Speciality</t>
   </si>
   <si>
@@ -440,13 +740,19 @@
     <t xml:space="preserve">CP</t>
   </si>
   <si>
+    <t xml:space="preserve">CARDIO</t>
+  </si>
+  <si>
     <t xml:space="preserve">GP</t>
   </si>
   <si>
     <t xml:space="preserve">NEURO</t>
   </si>
   <si>
-    <t xml:space="preserve">CARDIO</t>
+    <t xml:space="preserve">Endo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgeon</t>
   </si>
   <si>
     <t xml:space="preserve">Brand</t>
@@ -482,6 +788,9 @@
     <t xml:space="preserve">NEBILOC</t>
   </si>
   <si>
+    <t xml:space="preserve">CILNITAB</t>
+  </si>
+  <si>
     <t xml:space="preserve">GENERAL</t>
   </si>
   <si>
@@ -545,6 +854,18 @@
     <t xml:space="preserve">IM1071</t>
   </si>
   <si>
+    <t xml:space="preserve">IM0908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM0127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM0083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM1072</t>
+  </si>
+  <si>
     <t xml:space="preserve">IM0052</t>
   </si>
   <si>
@@ -575,6 +896,18 @@
     <t xml:space="preserve">IM1313</t>
   </si>
   <si>
+    <t xml:space="preserve">IM0117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM0157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM0159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM1277</t>
+  </si>
+  <si>
     <t xml:space="preserve">IM1342</t>
   </si>
   <si>
@@ -584,12 +917,6 @@
     <t xml:space="preserve">IM0133</t>
   </si>
   <si>
-    <t xml:space="preserve">IM1072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IM0127</t>
-  </si>
-  <si>
     <t xml:space="preserve">IM0983</t>
   </si>
   <si>
@@ -599,6 +926,9 @@
     <t xml:space="preserve">IM0273</t>
   </si>
   <si>
+    <t xml:space="preserve">IM1417</t>
+  </si>
+  <si>
     <t xml:space="preserve">IM1456</t>
   </si>
   <si>
@@ -608,6 +938,12 @@
     <t xml:space="preserve">IM0173</t>
   </si>
   <si>
+    <t xml:space="preserve">IM1286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IM1042</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product Name</t>
   </si>
   <si>
@@ -653,6 +989,18 @@
     <t xml:space="preserve">SITADOC 100</t>
   </si>
   <si>
+    <t xml:space="preserve">TRIGLIMIBRIT 1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELBRIT AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLIZATO 60 OD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITADOC M 50 / 1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">IEN FCM</t>
   </si>
   <si>
@@ -680,6 +1028,18 @@
     <t xml:space="preserve">DABITON -110</t>
   </si>
   <si>
+    <t xml:space="preserve">ROZULA 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CILNITAB 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CILNITAB 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITADOC MP 500</t>
+  </si>
+  <si>
     <t xml:space="preserve">ONLY E</t>
   </si>
   <si>
@@ -689,18 +1049,15 @@
     <t xml:space="preserve">TELBRIT H</t>
   </si>
   <si>
-    <t xml:space="preserve">SITADOC M 50 / 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELBRIT AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">TELBRIT CT</t>
   </si>
   <si>
     <t xml:space="preserve">MYGUT</t>
   </si>
   <si>
+    <t xml:space="preserve">NEURONZ QF</t>
+  </si>
+  <si>
     <t xml:space="preserve">IEN FCM.</t>
   </si>
   <si>
@@ -710,6 +1067,12 @@
     <t xml:space="preserve">GLIZATO M40</t>
   </si>
   <si>
+    <t xml:space="preserve">DAFAX VM 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROZULA GOLD 20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product PTS</t>
   </si>
   <si>
@@ -734,15 +1097,36 @@
     <t xml:space="preserve">EBS213</t>
   </si>
   <si>
+    <t xml:space="preserve">EBS118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBS043</t>
+  </si>
+  <si>
     <t xml:space="preserve">EBS004</t>
   </si>
   <si>
     <t xml:space="preserve">EBS144</t>
   </si>
   <si>
+    <t xml:space="preserve">EBS399</t>
+  </si>
+  <si>
     <t xml:space="preserve">EBS006</t>
   </si>
   <si>
+    <t xml:space="preserve">EBS464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBS416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBS008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBS088</t>
+  </si>
+  <si>
     <t xml:space="preserve">POB Stockist</t>
   </si>
   <si>
@@ -758,13 +1142,34 @@
     <t xml:space="preserve">S.G.PHARMA</t>
   </si>
   <si>
+    <t xml:space="preserve">KINGS AGENCY PHARMACEUTICAL DISTRIBUTORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA DISTRIBUTORS</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAGAMMAI PHARMA</t>
   </si>
   <si>
     <t xml:space="preserve">UMAYAL AGENCIES</t>
   </si>
   <si>
+    <t xml:space="preserve">SUCCESS PHARMAA &amp; VACCINE</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNIVERSAL PHARMA DISTRIBUTORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M M PHARMA DISTRIBUTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP S S MEDICAL HALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENTHIL GANAPATHY AGENCIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARASAN MEDICAL AGENCIES</t>
   </si>
   <si>
     <t xml:space="preserve">EDD</t>
@@ -940,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet0.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:W121"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -955,7 +1360,7 @@
     <col min="8" max="8" width="5.29" customWidth="1"/>
     <col min="9" max="9" width="12.43" customWidth="1"/>
     <col min="10" max="10" width="8.29" customWidth="1"/>
-    <col min="11" max="11" width="23.14" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="15.57" customWidth="1"/>
     <col min="13" max="13" width="7.71" customWidth="1"/>
     <col min="14" max="14" width="8.29" customWidth="1"/>
@@ -981,64 +1386,64 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>146</v>
+        <v>248</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>236</v>
+        <v>357</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>244</v>
+        <v>372</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>252</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
@@ -1052,46 +1457,46 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="R2" s="3">
         <v>86.79</v>
@@ -1103,13 +1508,13 @@
         <v>1735.80</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1">
@@ -1123,46 +1528,46 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>147</v>
+        <v>249</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="R3" s="3">
         <v>93.21</v>
@@ -1174,13 +1579,13 @@
         <v>932.10</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1">
@@ -1194,46 +1599,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="R4" s="3">
         <v>122.14</v>
@@ -1245,13 +1650,13 @@
         <v>1221.40</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1">
@@ -1265,46 +1670,46 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="R5" s="3">
         <v>125.36</v>
@@ -1316,13 +1721,13 @@
         <v>3760.80</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1">
@@ -1336,46 +1741,46 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="R6" s="3">
         <v>115.71</v>
@@ -1387,13 +1792,13 @@
         <v>2314.20</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="14.25" customHeight="1">
@@ -1407,46 +1812,46 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>169</v>
+        <v>272</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="R7" s="3">
         <v>83.57</v>
@@ -1458,13 +1863,13 @@
         <v>835.70</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="14.25" customHeight="1">
@@ -1478,46 +1883,46 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>206</v>
+        <v>318</v>
       </c>
       <c r="R8" s="3">
         <v>64.29</v>
@@ -1529,13 +1934,13 @@
         <v>1285.80</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="14.25" customHeight="1">
@@ -1549,46 +1954,46 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="R9" s="3">
         <v>70.71</v>
@@ -1600,10 +2005,10 @@
         <v>3535.50</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
       <c r="W9" s="4">
         <v/>
@@ -1620,46 +2025,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="R10" s="3">
         <v>65.12</v>
@@ -1671,10 +2076,10 @@
         <v>3256.00</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
       <c r="W10" s="4">
         <v/>
@@ -1691,46 +2096,46 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="R11" s="3">
         <v>109.93</v>
@@ -1762,46 +2167,46 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="R12" s="3">
         <v>141.43</v>
@@ -1833,46 +2238,46 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>211</v>
+        <v>323</v>
       </c>
       <c r="R13" s="3">
         <v>144.64</v>
@@ -1904,46 +2309,46 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>176</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>212</v>
+        <v>324</v>
       </c>
       <c r="R14" s="3">
         <v>128.57</v>
@@ -1975,46 +2380,46 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>213</v>
+        <v>325</v>
       </c>
       <c r="R15" s="3">
         <v>135.00</v>
@@ -2046,46 +2451,46 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="R16" s="3">
         <v>125.36</v>
@@ -2120,52 +2525,52 @@
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>178</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>155</v>
+        <v>326</v>
       </c>
       <c r="R17" s="3">
-        <v>192.86</v>
+        <v>119.57</v>
       </c>
       <c r="S17" s="3">
-        <v>10.00</v>
+        <v>100.00</v>
       </c>
       <c r="T17" s="3">
-        <v>1928.60</v>
+        <v>11957.00</v>
       </c>
       <c r="U17" s="4">
         <v/>
@@ -2191,52 +2596,52 @@
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>204</v>
+        <v>327</v>
       </c>
       <c r="R18" s="3">
         <v>115.71</v>
       </c>
       <c r="S18" s="3">
-        <v>20.00</v>
+        <v>50.00</v>
       </c>
       <c r="T18" s="3">
-        <v>2314.20</v>
+        <v>5785.50</v>
       </c>
       <c r="U18" s="4">
         <v/>
@@ -2262,58 +2667,58 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>214</v>
+        <v>324</v>
       </c>
       <c r="R19" s="3">
-        <v>1414.29</v>
+        <v>128.57</v>
       </c>
       <c r="S19" s="3">
-        <v>3.00</v>
+        <v>50.00</v>
       </c>
       <c r="T19" s="3">
-        <v>4242.87</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>247</v>
+        <v>6428.50</v>
+      </c>
+      <c r="U19" s="4">
+        <v/>
+      </c>
+      <c r="V19" s="4">
+        <v/>
       </c>
       <c r="W19" s="4">
         <v/>
@@ -2333,58 +2738,58 @@
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="R20" s="3">
-        <v>86.79</v>
+        <v>115.71</v>
       </c>
       <c r="S20" s="3">
         <v>30.00</v>
       </c>
       <c r="T20" s="3">
-        <v>2603.70</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>247</v>
+        <v>3471.30</v>
+      </c>
+      <c r="U20" s="4">
+        <v/>
+      </c>
+      <c r="V20" s="4">
+        <v/>
       </c>
       <c r="W20" s="4">
         <v/>
@@ -2404,58 +2809,58 @@
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>216</v>
+        <v>328</v>
       </c>
       <c r="R21" s="3">
-        <v>118.93</v>
+        <v>57.86</v>
       </c>
       <c r="S21" s="3">
-        <v>10.00</v>
+        <v>100.00</v>
       </c>
       <c r="T21" s="3">
-        <v>1189.30</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>247</v>
+        <v>5786.00</v>
+      </c>
+      <c r="U21" s="4">
+        <v/>
+      </c>
+      <c r="V21" s="4">
+        <v/>
       </c>
       <c r="W21" s="4">
         <v/>
@@ -2475,58 +2880,58 @@
         <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="R22" s="3">
-        <v>127.93</v>
+        <v>135.00</v>
       </c>
       <c r="S22" s="3">
-        <v>10.00</v>
+        <v>20.00</v>
       </c>
       <c r="T22" s="3">
-        <v>1279.30</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>247</v>
+        <v>2700.00</v>
+      </c>
+      <c r="U22" s="4">
+        <v/>
+      </c>
+      <c r="V22" s="4">
+        <v/>
       </c>
       <c r="W22" s="4">
         <v/>
@@ -2543,55 +2948,55 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="R23" s="3">
-        <v>115.71</v>
+        <v>192.86</v>
       </c>
       <c r="S23" s="3">
-        <v>30.00</v>
+        <v>10.00</v>
       </c>
       <c r="T23" s="3">
-        <v>3471.30</v>
+        <v>1928.60</v>
       </c>
       <c r="U23" s="4">
         <v/>
@@ -2614,55 +3019,55 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="R24" s="3">
-        <v>135.00</v>
+        <v>115.71</v>
       </c>
       <c r="S24" s="3">
         <v>20.00</v>
       </c>
       <c r="T24" s="3">
-        <v>2700.00</v>
+        <v>2314.20</v>
       </c>
       <c r="U24" s="4">
         <v/>
@@ -2685,61 +3090,61 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>204</v>
+        <v>330</v>
       </c>
       <c r="R25" s="3">
-        <v>115.71</v>
+        <v>1414.29</v>
       </c>
       <c r="S25" s="3">
-        <v>30.00</v>
+        <v>3.00</v>
       </c>
       <c r="T25" s="3">
-        <v>3471.30</v>
-      </c>
-      <c r="U25" s="4">
-        <v/>
-      </c>
-      <c r="V25" s="4">
-        <v/>
+        <v>4242.87</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="W25" s="4">
         <v/>
@@ -2756,61 +3161,61 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="R26" s="3">
-        <v>141.43</v>
+        <v>86.79</v>
       </c>
       <c r="S26" s="3">
         <v>30.00</v>
       </c>
       <c r="T26" s="3">
-        <v>4242.90</v>
-      </c>
-      <c r="U26" s="4">
-        <v/>
-      </c>
-      <c r="V26" s="4">
-        <v/>
+        <v>2603.70</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="W26" s="4">
         <v/>
@@ -2827,61 +3232,61 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>210</v>
+        <v>332</v>
       </c>
       <c r="R27" s="3">
-        <v>141.43</v>
+        <v>118.93</v>
       </c>
       <c r="S27" s="3">
-        <v>50.00</v>
+        <v>10.00</v>
       </c>
       <c r="T27" s="3">
-        <v>7071.50</v>
-      </c>
-      <c r="U27" s="4">
-        <v/>
-      </c>
-      <c r="V27" s="4">
-        <v/>
+        <v>1189.30</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="W27" s="4">
         <v/>
@@ -2901,58 +3306,58 @@
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>172</v>
+        <v>289</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>208</v>
+        <v>333</v>
       </c>
       <c r="R28" s="3">
-        <v>65.12</v>
+        <v>127.93</v>
       </c>
       <c r="S28" s="3">
-        <v>30.00</v>
+        <v>10.00</v>
       </c>
       <c r="T28" s="3">
-        <v>1953.60</v>
+        <v>1279.30</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>248</v>
+        <v>375</v>
       </c>
       <c r="W28" s="4">
         <v/>
@@ -2972,58 +3377,58 @@
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="R29" s="3">
-        <v>37.15</v>
+        <v>115.71</v>
       </c>
       <c r="S29" s="3">
-        <v>50.00</v>
+        <v>30.00</v>
       </c>
       <c r="T29" s="3">
-        <v>1857.50</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>248</v>
+        <v>3471.30</v>
+      </c>
+      <c r="U29" s="4">
+        <v/>
+      </c>
+      <c r="V29" s="4">
+        <v/>
       </c>
       <c r="W29" s="4">
         <v/>
@@ -3043,58 +3448,58 @@
         <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>220</v>
+        <v>334</v>
       </c>
       <c r="R30" s="3">
-        <v>86.79</v>
+        <v>135.00</v>
       </c>
       <c r="S30" s="3">
-        <v>50.00</v>
+        <v>20.00</v>
       </c>
       <c r="T30" s="3">
-        <v>4339.50</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>248</v>
+        <v>2700.00</v>
+      </c>
+      <c r="U30" s="4">
+        <v/>
+      </c>
+      <c r="V30" s="4">
+        <v/>
       </c>
       <c r="W30" s="4">
         <v/>
@@ -3114,58 +3519,58 @@
         <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="R31" s="3">
-        <v>125.36</v>
+        <v>115.71</v>
       </c>
       <c r="S31" s="3">
-        <v>10.00</v>
+        <v>30.00</v>
       </c>
       <c r="T31" s="3">
-        <v>1253.60</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>248</v>
+        <v>3471.30</v>
+      </c>
+      <c r="U31" s="4">
+        <v/>
+      </c>
+      <c r="V31" s="4">
+        <v/>
       </c>
       <c r="W31" s="4">
         <v/>
@@ -3185,52 +3590,52 @@
         <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>155</v>
+        <v>251</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>178</v>
+        <v>277</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>155</v>
+        <v>322</v>
       </c>
       <c r="R32" s="3">
-        <v>192.86</v>
+        <v>141.43</v>
       </c>
       <c r="S32" s="3">
-        <v>10.00</v>
+        <v>30.00</v>
       </c>
       <c r="T32" s="3">
-        <v>1928.60</v>
+        <v>4242.90</v>
       </c>
       <c r="U32" s="4">
         <v/>
@@ -3256,58 +3661,58 @@
         <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>222</v>
+        <v>322</v>
       </c>
       <c r="R33" s="3">
         <v>141.43</v>
       </c>
       <c r="S33" s="3">
-        <v>20.00</v>
+        <v>50.00</v>
       </c>
       <c r="T33" s="3">
-        <v>2828.60</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>248</v>
+        <v>7071.50</v>
+      </c>
+      <c r="U33" s="4">
+        <v/>
+      </c>
+      <c r="V33" s="4">
+        <v/>
       </c>
       <c r="W33" s="4">
         <v/>
@@ -3324,61 +3729,61 @@
         <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="R34" s="3">
-        <v>93.21</v>
+        <v>65.12</v>
       </c>
       <c r="S34" s="3">
-        <v>20.00</v>
+        <v>30.00</v>
       </c>
       <c r="T34" s="3">
-        <v>1864.20</v>
+        <v>1953.60</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="W34" s="4">
         <v/>
@@ -3392,64 +3797,64 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>155</v>
+        <v>335</v>
       </c>
       <c r="R35" s="3">
-        <v>192.86</v>
+        <v>37.15</v>
       </c>
       <c r="S35" s="3">
-        <v>10.00</v>
+        <v>50.00</v>
       </c>
       <c r="T35" s="3">
-        <v>1928.60</v>
-      </c>
-      <c r="U35" s="4">
-        <v/>
-      </c>
-      <c r="V35" s="4">
-        <v/>
+        <v>1857.50</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="W35" s="4">
         <v/>
@@ -3463,64 +3868,64 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
       <c r="R36" s="3">
-        <v>51.43</v>
+        <v>86.79</v>
       </c>
       <c r="S36" s="3">
-        <v>20.00</v>
+        <v>50.00</v>
       </c>
       <c r="T36" s="3">
-        <v>1028.60</v>
-      </c>
-      <c r="U36" s="4">
-        <v/>
-      </c>
-      <c r="V36" s="4">
-        <v/>
+        <v>4339.50</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="W36" s="4">
         <v/>
@@ -3534,67 +3939,67 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
       <c r="R37" s="3">
-        <v>475.71</v>
+        <v>125.36</v>
       </c>
       <c r="S37" s="3">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="T37" s="3">
-        <v>2378.55</v>
-      </c>
-      <c r="U37" s="4">
-        <v/>
-      </c>
-      <c r="V37" s="4">
-        <v/>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>18</v>
+        <v>1253.60</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="W37" s="4">
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:23" ht="14.25" customHeight="1">
@@ -3605,58 +4010,58 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="R38" s="3">
-        <v>115.71</v>
+        <v>192.86</v>
       </c>
       <c r="S38" s="3">
         <v>10.00</v>
       </c>
       <c r="T38" s="3">
-        <v>1157.10</v>
+        <v>1928.60</v>
       </c>
       <c r="U38" s="4">
         <v/>
@@ -3664,8 +4069,8 @@
       <c r="V38" s="4">
         <v/>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>18</v>
+      <c r="W38" s="4">
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:23" ht="14.25" customHeight="1">
@@ -3676,64 +4081,64 @@
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>155</v>
+        <v>338</v>
       </c>
       <c r="R39" s="3">
-        <v>192.86</v>
+        <v>141.43</v>
       </c>
       <c r="S39" s="3">
-        <v>10.00</v>
+        <v>20.00</v>
       </c>
       <c r="T39" s="3">
-        <v>1928.60</v>
-      </c>
-      <c r="U39" s="4">
-        <v/>
-      </c>
-      <c r="V39" s="4">
-        <v/>
+        <v>2828.60</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="W39" s="4">
         <v/>
@@ -3747,64 +4152,64 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
       <c r="R40" s="3">
-        <v>86.79</v>
+        <v>93.21</v>
       </c>
       <c r="S40" s="3">
-        <v>10.00</v>
+        <v>20.00</v>
       </c>
       <c r="T40" s="3">
-        <v>867.90</v>
-      </c>
-      <c r="U40" s="4">
-        <v/>
-      </c>
-      <c r="V40" s="4">
-        <v/>
+        <v>1864.20</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="W40" s="4">
         <v/>
@@ -3818,70 +4223,70 @@
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>206</v>
+        <v>339</v>
       </c>
       <c r="R41" s="3">
-        <v>64.29</v>
+        <v>127.93</v>
       </c>
       <c r="S41" s="3">
-        <v>20.00</v>
+        <v>50.00</v>
       </c>
       <c r="T41" s="3">
-        <v>1285.80</v>
-      </c>
-      <c r="U41" s="4">
-        <v/>
-      </c>
-      <c r="V41" s="4">
-        <v/>
+        <v>6396.50</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="W41" s="4">
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14.25" customHeight="1">
+    <row r="42" spans="1:23" ht="25.5" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -3889,64 +4294,64 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>191</v>
+        <v>287</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>226</v>
+        <v>331</v>
       </c>
       <c r="R42" s="3">
-        <v>135.00</v>
+        <v>86.79</v>
       </c>
       <c r="S42" s="3">
-        <v>20.00</v>
+        <v>40.00</v>
       </c>
       <c r="T42" s="3">
-        <v>2700.00</v>
-      </c>
-      <c r="U42" s="4">
-        <v/>
-      </c>
-      <c r="V42" s="4">
-        <v/>
+        <v>3471.60</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="W42" s="4">
         <v/>
@@ -3960,64 +4365,64 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>167</v>
+        <v>296</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>203</v>
+        <v>340</v>
       </c>
       <c r="R43" s="3">
-        <v>125.36</v>
+        <v>86.79</v>
       </c>
       <c r="S43" s="3">
-        <v>60.00</v>
+        <v>20.00</v>
       </c>
       <c r="T43" s="3">
-        <v>7521.60</v>
-      </c>
-      <c r="U43" s="4">
-        <v/>
-      </c>
-      <c r="V43" s="4">
-        <v/>
+        <v>1735.80</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="W43" s="4">
         <v/>
@@ -4031,70 +4436,70 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="R44" s="3">
-        <v>141.43</v>
+        <v>57.86</v>
       </c>
       <c r="S44" s="3">
-        <v>30.00</v>
+        <v>20.00</v>
       </c>
       <c r="T44" s="3">
-        <v>4242.90</v>
-      </c>
-      <c r="U44" s="4">
-        <v/>
-      </c>
-      <c r="V44" s="4">
-        <v/>
+        <v>1157.20</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="W44" s="4">
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="14.25" customHeight="1">
+    <row r="45" spans="1:23" ht="25.5" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
@@ -4102,64 +4507,64 @@
         <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>152</v>
+        <v>255</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="R45" s="3">
-        <v>115.71</v>
+        <v>119.57</v>
       </c>
       <c r="S45" s="3">
-        <v>20.00</v>
+        <v>50.00</v>
       </c>
       <c r="T45" s="3">
-        <v>2314.20</v>
-      </c>
-      <c r="U45" s="4">
-        <v/>
-      </c>
-      <c r="V45" s="4">
-        <v/>
+        <v>5978.50</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="W45" s="4">
         <v/>
@@ -4173,64 +4578,64 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>190</v>
+        <v>298</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>225</v>
+        <v>342</v>
       </c>
       <c r="R46" s="3">
-        <v>115.71</v>
+        <v>154.29</v>
       </c>
       <c r="S46" s="3">
-        <v>50.00</v>
+        <v>20.00</v>
       </c>
       <c r="T46" s="3">
-        <v>5785.50</v>
-      </c>
-      <c r="U46" s="4">
-        <v/>
-      </c>
-      <c r="V46" s="4">
-        <v/>
+        <v>3085.80</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="W46" s="4">
         <v/>
@@ -4244,64 +4649,64 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="R47" s="3">
-        <v>105.43</v>
+        <v>154.29</v>
       </c>
       <c r="S47" s="3">
-        <v>20.00</v>
+        <v>30.00</v>
       </c>
       <c r="T47" s="3">
-        <v>2108.60</v>
-      </c>
-      <c r="U47" s="4">
-        <v/>
-      </c>
-      <c r="V47" s="4">
-        <v/>
+        <v>4628.70</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="W47" s="4">
         <v/>
@@ -4315,64 +4720,64 @@
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="R48" s="3">
-        <v>115.71</v>
+        <v>64.29</v>
       </c>
       <c r="S48" s="3">
-        <v>30.00</v>
+        <v>100.00</v>
       </c>
       <c r="T48" s="3">
-        <v>3471.30</v>
-      </c>
-      <c r="U48" s="4">
-        <v/>
-      </c>
-      <c r="V48" s="4">
-        <v/>
+        <v>6429.00</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="W48" s="4">
         <v/>
@@ -4386,64 +4791,64 @@
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="R49" s="3">
-        <v>57.86</v>
+        <v>125.36</v>
       </c>
       <c r="S49" s="3">
-        <v>30.00</v>
+        <v>19.00</v>
       </c>
       <c r="T49" s="3">
-        <v>1735.80</v>
+        <v>2381.84</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>241</v>
+        <v>363</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="W49" s="4">
         <v/>
@@ -4460,55 +4865,55 @@
         <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="R50" s="3">
-        <v>91.53</v>
+        <v>192.86</v>
       </c>
       <c r="S50" s="3">
-        <v>20.00</v>
+        <v>10.00</v>
       </c>
       <c r="T50" s="3">
-        <v>1830.60</v>
+        <v>1928.60</v>
       </c>
       <c r="U50" s="4">
         <v/>
@@ -4531,55 +4936,55 @@
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>172</v>
+        <v>299</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>208</v>
+        <v>343</v>
       </c>
       <c r="R51" s="3">
-        <v>65.12</v>
+        <v>51.43</v>
       </c>
       <c r="S51" s="3">
-        <v>10.00</v>
+        <v>20.00</v>
       </c>
       <c r="T51" s="3">
-        <v>651.20</v>
+        <v>1028.60</v>
       </c>
       <c r="U51" s="4">
         <v/>
@@ -4602,55 +5007,55 @@
         <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>184</v>
+        <v>300</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>219</v>
+        <v>344</v>
       </c>
       <c r="R52" s="3">
-        <v>37.15</v>
+        <v>475.71</v>
       </c>
       <c r="S52" s="3">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="T52" s="3">
-        <v>371.50</v>
+        <v>2378.55</v>
       </c>
       <c r="U52" s="4">
         <v/>
@@ -4658,8 +5063,8 @@
       <c r="V52" s="4">
         <v/>
       </c>
-      <c r="W52" s="4">
-        <v/>
+      <c r="W52" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="14.25" customHeight="1">
@@ -4673,64 +5078,64 @@
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>160</v>
+        <v>254</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
       <c r="R53" s="3">
-        <v>91.53</v>
+        <v>115.71</v>
       </c>
       <c r="S53" s="3">
-        <v>50.00</v>
+        <v>10.00</v>
       </c>
       <c r="T53" s="3">
-        <v>4576.50</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="W53" s="4">
-        <v/>
+        <v>1157.10</v>
+      </c>
+      <c r="U53" s="4">
+        <v/>
+      </c>
+      <c r="V53" s="4">
+        <v/>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="14.25" customHeight="1">
@@ -4744,55 +5149,55 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="R54" s="3">
-        <v>86.79</v>
+        <v>64.29</v>
       </c>
       <c r="S54" s="3">
-        <v>10.00</v>
+        <v>20.00</v>
       </c>
       <c r="T54" s="3">
-        <v>867.90</v>
+        <v>1285.80</v>
       </c>
       <c r="U54" s="4">
         <v/>
@@ -4815,55 +5220,55 @@
         <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="R55" s="3">
-        <v>115.71</v>
+        <v>192.86</v>
       </c>
       <c r="S55" s="3">
         <v>10.00</v>
       </c>
       <c r="T55" s="3">
-        <v>1157.10</v>
+        <v>1928.60</v>
       </c>
       <c r="U55" s="4">
         <v/>
@@ -4886,55 +5291,55 @@
         <v>6</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>159</v>
+        <v>256</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>159</v>
+        <v>331</v>
       </c>
       <c r="R56" s="3">
-        <v>57.86</v>
+        <v>86.79</v>
       </c>
       <c r="S56" s="3">
-        <v>40.00</v>
+        <v>10.00</v>
       </c>
       <c r="T56" s="3">
-        <v>2314.40</v>
+        <v>867.90</v>
       </c>
       <c r="U56" s="4">
         <v/>
@@ -4960,52 +5365,52 @@
         <v>12</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>230</v>
+        <v>329</v>
       </c>
       <c r="R57" s="3">
-        <v>1414.29</v>
+        <v>135.00</v>
       </c>
       <c r="S57" s="3">
-        <v>5.00</v>
+        <v>20.00</v>
       </c>
       <c r="T57" s="3">
-        <v>7071.45</v>
+        <v>2700.00</v>
       </c>
       <c r="U57" s="4">
         <v/>
@@ -5028,55 +5433,55 @@
         <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="R58" s="3">
-        <v>57.86</v>
+        <v>125.36</v>
       </c>
       <c r="S58" s="3">
-        <v>30.00</v>
+        <v>60.00</v>
       </c>
       <c r="T58" s="3">
-        <v>1735.80</v>
+        <v>7521.60</v>
       </c>
       <c r="U58" s="4">
         <v/>
@@ -5099,55 +5504,55 @@
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="R59" s="3">
-        <v>62.36</v>
+        <v>141.43</v>
       </c>
       <c r="S59" s="3">
-        <v>50.00</v>
+        <v>30.00</v>
       </c>
       <c r="T59" s="3">
-        <v>3118.00</v>
+        <v>4242.90</v>
       </c>
       <c r="U59" s="4">
         <v/>
@@ -5170,55 +5575,55 @@
         <v>6</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>204</v>
+        <v>327</v>
       </c>
       <c r="R60" s="3">
         <v>115.71</v>
       </c>
       <c r="S60" s="3">
-        <v>30.00</v>
+        <v>20.00</v>
       </c>
       <c r="T60" s="3">
-        <v>3471.30</v>
+        <v>2314.20</v>
       </c>
       <c r="U60" s="4">
         <v/>
@@ -5241,55 +5646,55 @@
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>174</v>
+        <v>301</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>210</v>
+        <v>345</v>
       </c>
       <c r="R61" s="3">
-        <v>141.43</v>
+        <v>115.71</v>
       </c>
       <c r="S61" s="3">
-        <v>30.00</v>
+        <v>50.00</v>
       </c>
       <c r="T61" s="3">
-        <v>4242.90</v>
+        <v>5785.50</v>
       </c>
       <c r="U61" s="4">
         <v/>
@@ -5312,55 +5717,55 @@
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>131</v>
+        <v>214</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
       <c r="R62" s="3">
-        <v>37.15</v>
+        <v>105.43</v>
       </c>
       <c r="S62" s="3">
-        <v>50.00</v>
+        <v>20.00</v>
       </c>
       <c r="T62" s="3">
-        <v>1857.50</v>
+        <v>2108.60</v>
       </c>
       <c r="U62" s="4">
         <v/>
@@ -5383,61 +5788,61 @@
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
       <c r="R63" s="3">
-        <v>67.50</v>
+        <v>115.71</v>
       </c>
       <c r="S63" s="3">
         <v>30.00</v>
       </c>
       <c r="T63" s="3">
-        <v>2025.00</v>
-      </c>
-      <c r="U63" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="V63" s="2" t="s">
-        <v>251</v>
+        <v>3471.30</v>
+      </c>
+      <c r="U63" s="4">
+        <v/>
+      </c>
+      <c r="V63" s="4">
+        <v/>
       </c>
       <c r="W63" s="4">
         <v/>
@@ -5454,63 +5859,4110 @@
         <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R64" s="3">
+        <v>57.86</v>
+      </c>
+      <c r="S64" s="3">
+        <v>30.00</v>
+      </c>
+      <c r="T64" s="3">
+        <v>1735.80</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="W64" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R65" s="3">
+        <v>91.53</v>
+      </c>
+      <c r="S65" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T65" s="3">
+        <v>1830.60</v>
+      </c>
+      <c r="U65" s="4">
+        <v/>
+      </c>
+      <c r="V65" s="4">
+        <v/>
+      </c>
+      <c r="W65" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="R66" s="3">
+        <v>65.12</v>
+      </c>
+      <c r="S66" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T66" s="3">
+        <v>651.20</v>
+      </c>
+      <c r="U66" s="4">
+        <v/>
+      </c>
+      <c r="V66" s="4">
+        <v/>
+      </c>
+      <c r="W66" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="R67" s="3">
+        <v>37.15</v>
+      </c>
+      <c r="S67" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T67" s="3">
+        <v>371.50</v>
+      </c>
+      <c r="U67" s="4">
+        <v/>
+      </c>
+      <c r="V67" s="4">
+        <v/>
+      </c>
+      <c r="W67" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R68" s="3">
+        <v>91.53</v>
+      </c>
+      <c r="S68" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T68" s="3">
+        <v>4576.50</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="W68" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R69" s="3">
+        <v>115.71</v>
+      </c>
+      <c r="S69" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T69" s="3">
+        <v>5785.50</v>
+      </c>
+      <c r="U69" s="4">
+        <v/>
+      </c>
+      <c r="V69" s="4">
+        <v/>
+      </c>
+      <c r="W69" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="R70" s="3">
+        <v>86.79</v>
+      </c>
+      <c r="S70" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T70" s="3">
+        <v>4339.50</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="W70" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="R71" s="3">
+        <v>57.86</v>
+      </c>
+      <c r="S71" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T71" s="3">
+        <v>2893.00</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="W71" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="R72" s="3">
+        <v>86.79</v>
+      </c>
+      <c r="S72" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T72" s="3">
+        <v>867.90</v>
+      </c>
+      <c r="U72" s="4">
+        <v/>
+      </c>
+      <c r="V72" s="4">
+        <v/>
+      </c>
+      <c r="W72" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R73" s="3">
+        <v>115.71</v>
+      </c>
+      <c r="S73" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T73" s="3">
+        <v>1157.10</v>
+      </c>
+      <c r="U73" s="4">
+        <v/>
+      </c>
+      <c r="V73" s="4">
+        <v/>
+      </c>
+      <c r="W73" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R74" s="3">
+        <v>57.86</v>
+      </c>
+      <c r="S74" s="3">
+        <v>40.00</v>
+      </c>
+      <c r="T74" s="3">
+        <v>2314.40</v>
+      </c>
+      <c r="U74" s="4">
+        <v/>
+      </c>
+      <c r="V74" s="4">
+        <v/>
+      </c>
+      <c r="W74" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="R75" s="3">
+        <v>86.79</v>
+      </c>
+      <c r="S75" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T75" s="3">
+        <v>1735.80</v>
+      </c>
+      <c r="U75" s="4">
+        <v/>
+      </c>
+      <c r="V75" s="4">
+        <v/>
+      </c>
+      <c r="W75" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="R76" s="3">
+        <v>141.43</v>
+      </c>
+      <c r="S76" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T76" s="3">
+        <v>2828.60</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="W76" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R77" s="3">
+        <v>91.53</v>
+      </c>
+      <c r="S77" s="3">
+        <v>30.00</v>
+      </c>
+      <c r="T77" s="3">
+        <v>2745.90</v>
+      </c>
+      <c r="U77" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="V77" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="W77" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="R78" s="3">
+        <v>91.52</v>
+      </c>
+      <c r="S78" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T78" s="3">
+        <v>4576.00</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="W78" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R79" s="3">
+        <v>115.71</v>
+      </c>
+      <c r="S79" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T79" s="3">
+        <v>5785.50</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="W79" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="R80" s="3">
+        <v>70.71</v>
+      </c>
+      <c r="S80" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T80" s="3">
+        <v>3535.50</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="W80" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="R81" s="3">
+        <v>57.86</v>
+      </c>
+      <c r="S81" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T81" s="3">
+        <v>578.60</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="W81" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R82" s="3">
+        <v>115.71</v>
+      </c>
+      <c r="S82" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T82" s="3">
+        <v>1157.10</v>
+      </c>
+      <c r="U82" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="W82" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="R83" s="3">
+        <v>141.43</v>
+      </c>
+      <c r="S83" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T83" s="3">
+        <v>1414.30</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="V83" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="W83" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="R84" s="3">
+        <v>2249.36</v>
+      </c>
+      <c r="S84" s="3">
+        <v>5.00</v>
+      </c>
+      <c r="T84" s="3">
+        <v>11246.80</v>
+      </c>
+      <c r="U84" s="4">
+        <v/>
+      </c>
+      <c r="V84" s="4">
+        <v/>
+      </c>
+      <c r="W84" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="R85" s="3">
+        <v>51.43</v>
+      </c>
+      <c r="S85" s="3">
+        <v>40.00</v>
+      </c>
+      <c r="T85" s="3">
+        <v>2057.20</v>
+      </c>
+      <c r="U85" s="4">
+        <v/>
+      </c>
+      <c r="V85" s="4">
+        <v/>
+      </c>
+      <c r="W85" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="R86" s="3">
+        <v>62.36</v>
+      </c>
+      <c r="S86" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T86" s="3">
+        <v>3118.00</v>
+      </c>
+      <c r="U86" s="4">
+        <v/>
+      </c>
+      <c r="V86" s="4">
+        <v/>
+      </c>
+      <c r="W86" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="R87" s="3">
+        <v>109.93</v>
+      </c>
+      <c r="S87" s="3">
+        <v>100.00</v>
+      </c>
+      <c r="T87" s="3">
+        <v>10993.00</v>
+      </c>
+      <c r="U87" s="4">
+        <v/>
+      </c>
+      <c r="V87" s="4">
+        <v/>
+      </c>
+      <c r="W87" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="R88" s="3">
+        <v>125.36</v>
+      </c>
+      <c r="S88" s="3">
+        <v>100.00</v>
+      </c>
+      <c r="T88" s="3">
+        <v>12536.00</v>
+      </c>
+      <c r="U88" s="4">
+        <v/>
+      </c>
+      <c r="V88" s="4">
+        <v/>
+      </c>
+      <c r="W88" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A89" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="R89" s="3">
+        <v>1414.29</v>
+      </c>
+      <c r="S89" s="3">
+        <v>2.00</v>
+      </c>
+      <c r="T89" s="3">
+        <v>2828.58</v>
+      </c>
+      <c r="U89" s="4">
+        <v/>
+      </c>
+      <c r="V89" s="4">
+        <v/>
+      </c>
+      <c r="W89" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="R90" s="3">
+        <v>154.29</v>
+      </c>
+      <c r="S90" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T90" s="3">
+        <v>3085.80</v>
+      </c>
+      <c r="U90" s="4">
+        <v/>
+      </c>
+      <c r="V90" s="4">
+        <v/>
+      </c>
+      <c r="W90" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="R91" s="3">
+        <v>127.93</v>
+      </c>
+      <c r="S91" s="3">
+        <v>100.00</v>
+      </c>
+      <c r="T91" s="3">
+        <v>12793.00</v>
+      </c>
+      <c r="U91" s="4">
+        <v/>
+      </c>
+      <c r="V91" s="4">
+        <v/>
+      </c>
+      <c r="W91" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R92" s="3">
+        <v>57.86</v>
+      </c>
+      <c r="S92" s="3">
+        <v>30.00</v>
+      </c>
+      <c r="T92" s="3">
+        <v>1735.80</v>
+      </c>
+      <c r="U92" s="4">
+        <v/>
+      </c>
+      <c r="V92" s="4">
+        <v/>
+      </c>
+      <c r="W92" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="R93" s="3">
+        <v>62.36</v>
+      </c>
+      <c r="S93" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T93" s="3">
+        <v>3118.00</v>
+      </c>
+      <c r="U93" s="4">
+        <v/>
+      </c>
+      <c r="V93" s="4">
+        <v/>
+      </c>
+      <c r="W93" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R94" s="3">
+        <v>115.71</v>
+      </c>
+      <c r="S94" s="3">
+        <v>30.00</v>
+      </c>
+      <c r="T94" s="3">
+        <v>3471.30</v>
+      </c>
+      <c r="U94" s="4">
+        <v/>
+      </c>
+      <c r="V94" s="4">
+        <v/>
+      </c>
+      <c r="W94" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="R95" s="3">
+        <v>141.43</v>
+      </c>
+      <c r="S95" s="3">
+        <v>30.00</v>
+      </c>
+      <c r="T95" s="3">
+        <v>4242.90</v>
+      </c>
+      <c r="U95" s="4">
+        <v/>
+      </c>
+      <c r="V95" s="4">
+        <v/>
+      </c>
+      <c r="W95" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="R96" s="3">
+        <v>37.15</v>
+      </c>
+      <c r="S96" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T96" s="3">
+        <v>1857.50</v>
+      </c>
+      <c r="U96" s="4">
+        <v/>
+      </c>
+      <c r="V96" s="4">
+        <v/>
+      </c>
+      <c r="W96" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="R97" s="3">
+        <v>67.50</v>
+      </c>
+      <c r="S97" s="3">
+        <v>30.00</v>
+      </c>
+      <c r="T97" s="3">
+        <v>2025.00</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="W97" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R98" s="3">
+        <v>115.71</v>
+      </c>
+      <c r="S98" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T98" s="3">
+        <v>1157.10</v>
+      </c>
+      <c r="U98" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="W98" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="R99" s="3">
+        <v>144.64</v>
+      </c>
+      <c r="S99" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T99" s="3">
+        <v>1446.40</v>
+      </c>
+      <c r="U99" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="V99" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="W99" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R100" s="3">
+        <v>115.71</v>
+      </c>
+      <c r="S100" s="3">
+        <v>30.00</v>
+      </c>
+      <c r="T100" s="3">
+        <v>3471.30</v>
+      </c>
+      <c r="U100" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="V100" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="W100" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R101" s="3">
+        <v>91.53</v>
+      </c>
+      <c r="S101" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T101" s="3">
+        <v>1830.60</v>
+      </c>
+      <c r="U101" s="4">
+        <v/>
+      </c>
+      <c r="V101" s="4">
+        <v/>
+      </c>
+      <c r="W101" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="R102" s="3">
+        <v>141.43</v>
+      </c>
+      <c r="S102" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T102" s="3">
+        <v>1414.30</v>
+      </c>
+      <c r="U102" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="V102" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="W102" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="R103" s="3">
+        <v>167.14</v>
+      </c>
+      <c r="S103" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T103" s="3">
+        <v>1671.40</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="V103" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="W103" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R104" s="3">
+        <v>91.53</v>
+      </c>
+      <c r="S104" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T104" s="3">
+        <v>1830.60</v>
+      </c>
+      <c r="U104" s="4">
+        <v/>
+      </c>
+      <c r="V104" s="4">
+        <v/>
+      </c>
+      <c r="W104" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R105" s="3">
+        <v>115.71</v>
+      </c>
+      <c r="S105" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T105" s="3">
+        <v>5785.50</v>
+      </c>
+      <c r="U105" s="4">
+        <v/>
+      </c>
+      <c r="V105" s="4">
+        <v/>
+      </c>
+      <c r="W105" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="R106" s="3">
+        <v>475.71</v>
+      </c>
+      <c r="S106" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T106" s="3">
+        <v>9514.20</v>
+      </c>
+      <c r="U106" s="4">
+        <v/>
+      </c>
+      <c r="V106" s="4">
+        <v/>
+      </c>
+      <c r="W106" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="R107" s="3">
+        <v>125.36</v>
+      </c>
+      <c r="S107" s="3">
+        <v>30.00</v>
+      </c>
+      <c r="T107" s="3">
+        <v>3760.80</v>
+      </c>
+      <c r="U107" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="V107" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="W107" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="R108" s="3">
+        <v>144.64</v>
+      </c>
+      <c r="S108" s="3">
+        <v>30.00</v>
+      </c>
+      <c r="T108" s="3">
+        <v>4339.20</v>
+      </c>
+      <c r="U108" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="V108" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="W108" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R109" s="3">
+        <v>115.71</v>
+      </c>
+      <c r="S109" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T109" s="3">
+        <v>5785.50</v>
+      </c>
+      <c r="U109" s="4">
+        <v/>
+      </c>
+      <c r="V109" s="4">
+        <v/>
+      </c>
+      <c r="W109" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="R110" s="3">
+        <v>67.50</v>
+      </c>
+      <c r="S110" s="3">
+        <v>30.00</v>
+      </c>
+      <c r="T110" s="3">
+        <v>2025.00</v>
+      </c>
+      <c r="U110" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="V110" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="W110" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R111" s="3">
+        <v>115.71</v>
+      </c>
+      <c r="S111" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T111" s="3">
+        <v>2314.20</v>
+      </c>
+      <c r="U111" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="V111" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="W111" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A112" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="R112" s="3">
+        <v>192.86</v>
+      </c>
+      <c r="S112" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T112" s="3">
+        <v>9643.00</v>
+      </c>
+      <c r="U112" s="4">
+        <v/>
+      </c>
+      <c r="V112" s="4">
+        <v/>
+      </c>
+      <c r="W112" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q113" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="R113" s="3">
+        <v>86.79</v>
+      </c>
+      <c r="S113" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T113" s="3">
+        <v>4339.50</v>
+      </c>
+      <c r="U113" s="4">
+        <v/>
+      </c>
+      <c r="V113" s="4">
+        <v/>
+      </c>
+      <c r="W113" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R114" s="3">
+        <v>57.86</v>
+      </c>
+      <c r="S114" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T114" s="3">
+        <v>2893.00</v>
+      </c>
+      <c r="U114" s="4">
+        <v/>
+      </c>
+      <c r="V114" s="4">
+        <v/>
+      </c>
+      <c r="W114" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="R115" s="3">
+        <v>144.64</v>
+      </c>
+      <c r="S115" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T115" s="3">
+        <v>7232.00</v>
+      </c>
+      <c r="U115" s="4">
+        <v/>
+      </c>
+      <c r="V115" s="4">
+        <v/>
+      </c>
+      <c r="W115" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="R116" s="3">
+        <v>91.53</v>
+      </c>
+      <c r="S116" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T116" s="3">
+        <v>4576.50</v>
+      </c>
+      <c r="U116" s="4">
+        <v/>
+      </c>
+      <c r="V116" s="4">
+        <v/>
+      </c>
+      <c r="W116" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q117" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R117" s="3">
+        <v>115.71</v>
+      </c>
+      <c r="S117" s="3">
+        <v>300.00</v>
+      </c>
+      <c r="T117" s="3">
+        <v>34713.00</v>
+      </c>
+      <c r="U117" s="4">
+        <v/>
+      </c>
+      <c r="V117" s="4">
+        <v/>
+      </c>
+      <c r="W117" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="R118" s="3">
+        <v>141.43</v>
+      </c>
+      <c r="S118" s="3">
+        <v>50.00</v>
+      </c>
+      <c r="T118" s="3">
+        <v>7071.50</v>
+      </c>
+      <c r="U118" s="4">
+        <v/>
+      </c>
+      <c r="V118" s="4">
+        <v/>
+      </c>
+      <c r="W118" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="E119" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R119" s="3">
+        <v>115.71</v>
+      </c>
+      <c r="S119" s="3">
+        <v>20.00</v>
+      </c>
+      <c r="T119" s="3">
+        <v>2314.20</v>
+      </c>
+      <c r="U119" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="V119" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="W119" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A120" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="R64" s="3">
+      <c r="G120" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="R120" s="3">
         <v>115.71</v>
       </c>
-      <c r="S64" s="3">
+      <c r="S120" s="3">
         <v>10.00</v>
       </c>
-      <c r="T64" s="3">
+      <c r="T120" s="3">
         <v>1157.10</v>
       </c>
-      <c r="U64" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="W64" s="4">
+      <c r="U120" s="4">
+        <v/>
+      </c>
+      <c r="V120" s="4">
+        <v/>
+      </c>
+      <c r="W120" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="14.25" customHeight="1">
+      <c r="A121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q121" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R121" s="3">
+        <v>57.86</v>
+      </c>
+      <c r="S121" s="3">
+        <v>10.00</v>
+      </c>
+      <c r="T121" s="3">
+        <v>578.60</v>
+      </c>
+      <c r="U121" s="4">
+        <v/>
+      </c>
+      <c r="V121" s="4">
+        <v/>
+      </c>
+      <c r="W121" s="4">
         <v/>
       </c>
     </row>
